--- a/output/demo_v4.xlsx
+++ b/output/demo_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\OCR_Nom\experiments\insert_img\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD6E1B-D893-4EE0-BFCA-DCCCC5E63C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77937600-7645-49BC-8264-B28998D942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,25 +61,25 @@
     <t>che_phong-108-fig2-so099_crop_9.jpg</t>
   </si>
   <si>
-    <t>生重壤之光留顯號于千秋永誌外家之福欽</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
     <t>sac_phong-019-fig2-so045_crop_3.jpg</t>
   </si>
   <si>
-    <t>聖祖仁皇帝五旬大慶節欽奉</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
     <t>sac_phong-004-fig2-so004_crop_2.jpg</t>
   </si>
   <si>
-    <t>靈應肆今丕承</t>
+    <t>重壤之光留顯號于千秋永誌外家之福欽</t>
+  </si>
+  <si>
+    <t>聖祖皇帝五旬大慶節欽奉</t>
+  </si>
+  <si>
+    <t>靈應肆丕承</t>
   </si>
 </sst>
 </file>
@@ -792,15 +792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="170.28515625" customWidth="1"/>
-    <col min="3" max="4" width="40" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="160" customWidth="1"/>
   </cols>
   <sheetData>
@@ -857,28 +858,28 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="158.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>

--- a/output/demo_v4.xlsx
+++ b/output/demo_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\OCR_Nom\experiments\insert_img\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77937600-7645-49BC-8264-B28998D942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02C6E9-C0BD-4C05-906C-195577A2E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,25 +61,25 @@
     <t>che_phong-108-fig2-so099_crop_9.jpg</t>
   </si>
   <si>
+    <t>生重壤之光留顯號于千秋永誌外家之福欽</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
     <t>sac_phong-019-fig2-so045_crop_3.jpg</t>
   </si>
   <si>
+    <t>聖祖仁皇帝五旬大慶節欽奉</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
     <t>sac_phong-004-fig2-so004_crop_2.jpg</t>
   </si>
   <si>
-    <t>重壤之光留顯號于千秋永誌外家之福欽</t>
-  </si>
-  <si>
-    <t>聖祖皇帝五旬大慶節欽奉</t>
-  </si>
-  <si>
-    <t>靈應肆丕承</t>
+    <t>靈應肆今丕承</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="1885950"/>
+    <xdr:ext cx="962025" cy="4752975"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -212,7 +212,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="1885950"/>
+    <xdr:ext cx="962025" cy="4752975"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2" descr="Picture">
@@ -245,7 +245,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="276225" cy="3638550"/>
+    <xdr:ext cx="352425" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Image 3" descr="Picture">
@@ -278,7 +278,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="276225" cy="3638550"/>
+    <xdr:ext cx="352425" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Image 4" descr="Picture">
@@ -311,7 +311,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="238125" cy="3086100"/>
+    <xdr:ext cx="361950" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Image 5" descr="Picture">
@@ -344,7 +344,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="238125" cy="3086100"/>
+    <xdr:ext cx="361950" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Image 6" descr="Picture">
@@ -377,7 +377,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="285750" cy="2886075"/>
+    <xdr:ext cx="466725" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Image 7" descr="Picture">
@@ -410,7 +410,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="285750" cy="2886075"/>
+    <xdr:ext cx="466725" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Image 8" descr="Picture">
@@ -443,7 +443,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="266700" cy="1504950"/>
+    <xdr:ext cx="838200" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Image 9" descr="Picture">
@@ -476,7 +476,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="266700" cy="1504950"/>
+    <xdr:ext cx="838200" cy="4762500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Image 10" descr="Picture">
@@ -792,16 +792,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="170.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="2" max="2" width="171.5703125" customWidth="1"/>
+    <col min="3" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="160" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="381.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -848,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="324" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -858,28 +855,28 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="158.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
